--- a/src/test/resources/excelfiles/TestData.xlsx
+++ b/src/test/resources/excelfiles/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nehak\eclipse-workspace\SpeedoyTest\src\test\resources\excelfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6EF9D2-4CC5-4119-B7DF-BC259963E939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E9EDA6-5535-4E1A-803E-7B22C80659B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8880" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Verify_ValidEmail_InvalidPwd" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="SelectRestaurant" sheetId="5" r:id="rId4"/>
     <sheet name="Verify_ValidEmail_ValidPassword" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>EmailID</t>
   </si>
@@ -61,37 +61,43 @@
     <t>Test</t>
   </si>
   <si>
+    <t>"0764302478"</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>ordertype</t>
+  </si>
+  <si>
+    <t>Drottinggatan stockholm</t>
+  </si>
+  <si>
+    <t>Utkörning</t>
+  </si>
+  <si>
+    <t>Avhämtning</t>
+  </si>
+  <si>
+    <t>RestaurantName</t>
+  </si>
+  <si>
+    <t>Test Restaurant</t>
+  </si>
+  <si>
+    <t>28test@mailinator.com</t>
+  </si>
+  <si>
+    <t>welcome1234</t>
+  </si>
+  <si>
+    <t>1febsignuptest@mailinator.com</t>
+  </si>
+  <si>
+    <t>2febdd@mailinator.com</t>
+  </si>
+  <si>
     <t>pass123</t>
-  </si>
-  <si>
-    <t>"0764302478"</t>
-  </si>
-  <si>
-    <t>testsweden22@mailinator</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>ordertype</t>
-  </si>
-  <si>
-    <t>Drottinggatan stockholm</t>
-  </si>
-  <si>
-    <t>Utkörning</t>
-  </si>
-  <si>
-    <t>Avhämtning</t>
-  </si>
-  <si>
-    <t>RestaurantName</t>
-  </si>
-  <si>
-    <t>Test Restaurant</t>
-  </si>
-  <si>
-    <t>welcome123</t>
   </si>
 </sst>
 </file>
@@ -566,7 +572,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,7 +607,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -610,13 +616,13 @@
         <v>9</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -633,7 +639,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,26 +650,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -686,12 +692,12 @@
   <sheetData>
     <row r="1" spans="1:1" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -701,10 +707,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7290D1-5F41-4C85-8D05-F7F2BEA1BD45}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -723,16 +729,24 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{56437A89-E0DC-4903-A54C-B6D24EAB0F92}"/>
-    <hyperlink ref="B2" r:id="rId2" display="password@18" xr:uid="{4FE97FA6-6449-419F-845C-597B38576B82}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{E02DDC1F-EAC8-4361-8E65-002FCC310914}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{A1FE6991-77AE-4E4B-8918-33E401BD19C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
